--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_10.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_10.xlsx
@@ -1175,10 +1175,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>1427602156</v>
+        <v>1427602155.6800008</v>
       </c>
       <c r="D12" s="1">
-        <v>1398800851.3300049</v>
+        <v>1398800851</v>
       </c>
       <c r="E12" s="1">
         <v>1361974149.3</v>
@@ -1211,10 +1211,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>340926355.5</v>
+        <v>340926355.51000023</v>
       </c>
       <c r="D13" s="1">
-        <v>338965688.90999979</v>
+        <v>338965688.89999998</v>
       </c>
       <c r="E13" s="1">
         <v>332114255.61000007</v>
@@ -1247,10 +1247,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>985666.55</v>
+        <v>985666.54999992996</v>
       </c>
       <c r="D14" s="1">
-        <v>-45752811.059999987</v>
+        <v>-45752811.060000002</v>
       </c>
       <c r="E14" s="1">
         <v>537985.22000000253</v>
@@ -1286,7 +1286,7 @@
         <v>30000000</v>
       </c>
       <c r="D15" s="1">
-        <v>30000000</v>
+        <v>300000000</v>
       </c>
       <c r="E15" s="1">
         <v>30000000</v>
@@ -1322,7 +1322,7 @@
         <v>-51786608.799999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-50601311.959999993</v>
+        <v>-50601311.960000001</v>
       </c>
       <c r="E16" s="1">
         <v>-60473972.810000002</v>
@@ -1391,11 +1391,12 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>151551800</v>
+        <f>SUM(C12:C17)</f>
+        <v>1515501799.8700008</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D12:D17)</f>
-        <v>1447283759.3800049</v>
+        <v>1717283759.0400002</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(E12:E17)</f>
@@ -1433,10 +1434,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>-392700000</v>
+        <v>-392700000.00000024</v>
       </c>
       <c r="D19" s="1">
-        <v>-383099999.99999988</v>
+        <v>-383100000</v>
       </c>
       <c r="E19" s="1">
         <v>-384700000.00000012</v>
@@ -1505,11 +1506,12 @@
         <v>22</v>
       </c>
       <c r="C21" s="33">
-        <v>1124090364</v>
+        <f>SUM(C18:C20)</f>
+        <v>1124090364.1500006</v>
       </c>
       <c r="D21" s="33">
         <f>SUM(D18:D20)</f>
-        <v>1096925174.6300049</v>
+        <v>1366925174.2900002</v>
       </c>
       <c r="E21" s="33">
         <f>SUM(E18:E20)</f>
@@ -1584,11 +1586,11 @@
       </c>
       <c r="C23" s="33">
         <f>SUM(C21:C22)</f>
-        <v>1090714269</v>
+        <v>1090714269.1500006</v>
       </c>
       <c r="D23" s="33">
         <f>SUM(D21:D22)</f>
-        <v>1064724149.6300049</v>
+        <v>1334724149.2900002</v>
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
@@ -1632,11 +1634,11 @@
       </c>
       <c r="C25" s="5">
         <f>C23/C26</f>
-        <v>1.0870526181329758</v>
+        <v>1.0870526184326699</v>
       </c>
       <c r="D25" s="5">
         <f>D23/D26</f>
-        <v>1.0541908745672561</v>
+        <v>1.321519774789065</v>
       </c>
       <c r="E25" s="5">
         <f>E23/E26</f>
@@ -1672,10 +1674,10 @@
       <c r="A26" s="9"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1">
-        <v>1003368421</v>
+        <v>1003368420.8613656</v>
       </c>
       <c r="D26" s="1">
-        <v>1009991810.1331247</v>
+        <v>1009991810</v>
       </c>
       <c r="E26" s="1">
         <v>1018613403.9980445</v>
@@ -1727,11 +1729,11 @@
       <c r="C28" s="6"/>
       <c r="D28" s="16">
         <f>(D25-C25)/C25</f>
-        <v>-3.023013147437157E-2</v>
+        <v>0.21569071485652067</v>
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>-2.9235747514880096E-2</v>
+        <v>-0.2256106674686249</v>
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0199816896062512</v>
+        <v>1.0734474697105518</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
